--- a/apps/mmGasApp/documentation/EPICS_datas.xlsx
+++ b/apps/mmGasApp/documentation/EPICS_datas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="103">
   <si>
     <t>BARREL</t>
   </si>
@@ -252,6 +252,90 @@
   </si>
   <si>
     <t>Overpressure flow fault</t>
+  </si>
+  <si>
+    <t>Barrel warning general</t>
+  </si>
+  <si>
+    <t>Barrel fault general</t>
+  </si>
+  <si>
+    <t>Barrel flow ok (input and output flow gas is correct)</t>
+  </si>
+  <si>
+    <t>Input pressure</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>64.1</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>64.4</t>
+  </si>
+  <si>
+    <t>64.5</t>
+  </si>
+  <si>
+    <t>64.6</t>
+  </si>
+  <si>
+    <t>64.7</t>
+  </si>
+  <si>
+    <t>64.2</t>
+  </si>
+  <si>
+    <t>Input flow warning</t>
+  </si>
+  <si>
+    <t>Delta input/output flow warning</t>
+  </si>
+  <si>
+    <t>Input flow fault</t>
+  </si>
+  <si>
+    <t>Start gas command</t>
+  </si>
+  <si>
+    <t>Stop gas command</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>65.1</t>
+  </si>
+  <si>
+    <t>65.2</t>
+  </si>
+  <si>
+    <t>65.3</t>
+  </si>
+  <si>
+    <t>65.4</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>65.6</t>
+  </si>
+  <si>
+    <t>Delta input/output flow fault</t>
+  </si>
+  <si>
+    <t>65.7</t>
+  </si>
+  <si>
+    <t>Only write</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -321,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +419,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1572,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,13 +1769,10 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1705,13 +1792,10 @@
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1729,13 +1813,12 @@
       <c r="G7" s="2">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <v>8</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1751,13 +1834,12 @@
       <c r="G8" s="2">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="J8" s="6">
         <v>12</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1768,11 +1850,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="J9" s="2">
+      <c r="J9" s="6">
         <v>16</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>65</v>
+      <c r="K9" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1784,11 +1866,11 @@
         <v>12</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>66</v>
+      <c r="K10" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1800,10 +1882,12 @@
         <v>13</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
         <v>24</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1814,11 +1898,11 @@
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="J12" s="2">
+      <c r="J12" s="6">
         <v>28</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>67</v>
+      <c r="K12" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1826,11 +1910,11 @@
         <v>23</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="J13" s="2">
+      <c r="J13" s="6">
         <v>32</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>60</v>
+      <c r="K13" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1838,21 +1922,23 @@
         <v>24</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="J14" s="2">
+      <c r="J14" s="6">
         <v>36</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="J15" s="2">
+      <c r="J15" s="6">
         <v>40</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>68</v>
+      <c r="K15" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1860,178 +1946,268 @@
         <v>26</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="J16" s="2">
+      <c r="J16" s="6">
         <v>44</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="J17" s="2">
+      <c r="J17" s="6">
         <v>48</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="J18" s="2">
+      <c r="J18" s="6">
         <v>52</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="J19" s="2">
+      <c r="J19" s="6">
         <v>56</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="J20" s="2">
+      <c r="J20" s="6">
         <v>60</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="2">
-        <v>64</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="2">
-        <v>68</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="2">
-        <v>72</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="2"/>
+      <c r="J36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/apps/mmGasApp/documentation/EPICS_datas.xlsx
+++ b/apps/mmGasApp/documentation/EPICS_datas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -381,7 +381,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +398,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,12 +455,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,6 +485,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -570,24 +584,24 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -696,19 +710,19 @@
       <c r="F5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -722,19 +736,19 @@
       <c r="F6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -748,19 +762,19 @@
       <c r="F7" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -774,19 +788,19 @@
       <c r="F8" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -800,19 +814,19 @@
       <c r="F9" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -826,19 +840,19 @@
       <c r="F10" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -852,19 +866,19 @@
       <c r="F11" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L11" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -878,19 +892,19 @@
       <c r="F12" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -904,19 +918,19 @@
       <c r="F13" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -930,19 +944,19 @@
       <c r="F14" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -956,19 +970,19 @@
       <c r="F15" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L15" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -982,19 +996,19 @@
       <c r="F16" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="L16" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1115,19 +1129,19 @@
       <c r="D21" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M21" s="7" t="s">
@@ -1147,19 +1161,19 @@
       <c r="D22" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="M22" s="7" t="s">
@@ -1179,19 +1193,19 @@
       <c r="D23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M23" s="7" t="s">
@@ -1211,19 +1225,19 @@
       <c r="D24" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="M24" s="7" t="s">
@@ -1243,19 +1257,19 @@
       <c r="D25" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="10" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="10" t="s">
         <v>65</v>
       </c>
       <c r="M25" s="7" t="s">
@@ -1275,22 +1289,22 @@
       <c r="D26" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1307,22 +1321,22 @@
       <c r="D27" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1339,22 +1353,22 @@
       <c r="D28" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1467,19 +1481,19 @@
       <c r="D32" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="10" t="s">
         <v>89</v>
       </c>
       <c r="M32" s="7" t="s">
@@ -1499,19 +1513,19 @@
       <c r="D33" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="10" t="s">
         <v>93</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="10" t="s">
         <v>93</v>
       </c>
       <c r="M33" s="7" t="s">
@@ -1531,19 +1545,19 @@
       <c r="D34" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="10" t="s">
         <v>97</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="10" t="s">
         <v>97</v>
       </c>
       <c r="M34" s="7" t="s">
@@ -1563,19 +1577,19 @@
       <c r="D35" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="10" t="s">
         <v>101</v>
       </c>
       <c r="M35" s="7" t="s">
@@ -1595,19 +1609,19 @@
       <c r="D36" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="10" t="s">
         <v>105</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="10" t="s">
         <v>105</v>
       </c>
       <c r="M36" s="7" t="s">
